--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value405.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value405.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.110491345883977</v>
+        <v>2.885541200637817</v>
       </c>
       <c r="B1">
-        <v>1.360676932295398</v>
+        <v>2.975127458572388</v>
       </c>
       <c r="C1">
-        <v>1.889799812119683</v>
+        <v>2.063964128494263</v>
       </c>
       <c r="D1">
-        <v>3.575197780648165</v>
+        <v>1.849264740943909</v>
       </c>
       <c r="E1">
-        <v>1.605232462828473</v>
+        <v>1.746202826499939</v>
       </c>
     </row>
   </sheetData>
